--- a/nmadb/482475.xlsx
+++ b/nmadb/482475.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="140" windowWidth="18200" windowHeight="14760"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -90,15 +90,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>tx</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Beneficial</t>
   </si>
   <si>
@@ -235,12 +226,21 @@
   <si>
     <t>Wirth</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +279,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -640,21 +641,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="7" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="7" width="8.85546875" style="8"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -668,22 +669,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -691,7 +692,7 @@
         <v>2005</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -709,7 +710,7 @@
         <v>2.34</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -734,7 +735,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -752,10 +753,10 @@
         <v>0.32</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -775,7 +776,7 @@
         <v>0.32</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K5" s="6">
         <v>1</v>
@@ -786,7 +787,7 @@
         <v>2007</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -804,7 +805,7 @@
         <v>0.71</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K6" s="6">
         <v>2</v>
@@ -821,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K7" s="6">
         <v>3</v>
@@ -832,7 +833,7 @@
         <v>2000</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -850,7 +851,7 @@
         <v>1.36</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K8" s="6">
         <v>4</v>
@@ -873,7 +874,7 @@
         <v>0.71</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K9" s="6">
         <v>5</v>
@@ -884,7 +885,7 @@
         <v>2005</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -902,7 +903,7 @@
         <v>0.24</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="6">
         <v>6</v>
@@ -925,7 +926,7 @@
         <v>0.2</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" s="6">
         <v>7</v>
@@ -936,7 +937,7 @@
         <v>2005</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -954,7 +955,7 @@
         <v>1.73</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" s="6">
         <v>8</v>
@@ -979,10 +980,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
@@ -1019,10 +1020,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
@@ -1062,7 +1063,7 @@
         <v>2001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <v>9</v>
@@ -1102,7 +1103,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3">
         <v>10</v>
@@ -1142,7 +1143,7 @@
         <v>2008</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3">
         <v>11</v>
@@ -1199,7 +1200,7 @@
         <v>2006</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
@@ -1256,7 +1257,7 @@
         <v>2000</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3">
         <v>13</v>
@@ -1290,7 +1291,7 @@
         <v>2004</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3">
         <v>14</v>
@@ -1364,7 +1365,7 @@
         <v>2008</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3">
         <v>15</v>
@@ -1421,7 +1422,7 @@
         <v>2006</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
         <v>16</v>
@@ -1461,7 +1462,7 @@
         <v>2004</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
         <v>17</v>
@@ -1501,7 +1502,7 @@
         <v>2005</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3">
         <v>18</v>
@@ -1541,7 +1542,7 @@
         <v>2006</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3">
         <v>19</v>
@@ -1581,7 +1582,7 @@
         <v>2004</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C45" s="3">
         <v>20</v>
@@ -1621,7 +1622,7 @@
         <v>2008</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C47" s="3">
         <v>21</v>
@@ -1661,7 +1662,7 @@
         <v>2007</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C49" s="3">
         <v>22</v>
@@ -1701,7 +1702,7 @@
         <v>2004</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="3">
         <v>23</v>
@@ -1741,7 +1742,7 @@
         <v>2006</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C53" s="3">
         <v>24</v>
@@ -1781,7 +1782,7 @@
         <v>2007</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C55" s="3">
         <v>25</v>
@@ -1821,7 +1822,7 @@
         <v>1999</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C57" s="3">
         <v>26</v>
@@ -1861,7 +1862,7 @@
         <v>2005</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C59" s="3">
         <v>27</v>
@@ -1901,7 +1902,7 @@
         <v>2006</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C61" s="3">
         <v>28</v>
@@ -1948,12 +1949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1965,12 +1966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/nmadb/482475.xlsx
+++ b/nmadb/482475.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>year</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>se</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -341,6 +344,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +649,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -654,6 +658,7 @@
     <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="8.85546875" style="3"/>
     <col min="6" max="7" width="8.85546875" style="8"/>
+    <col min="8" max="8" width="15" style="10" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
   </cols>
@@ -680,6 +685,9 @@
       <c r="G1" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
@@ -709,6 +717,10 @@
       <c r="G2" s="8">
         <v>2.34</v>
       </c>
+      <c r="H2" s="10">
+        <f>G2*SQRT(10)</f>
+        <v>7.3997297247940077</v>
+      </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
@@ -729,6 +741,10 @@
       <c r="G3" s="8">
         <v>2.95</v>
       </c>
+      <c r="H3" s="10">
+        <f>G3*SQRT(11)</f>
+        <v>9.7840431315484295</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3">
@@ -752,6 +768,10 @@
       <c r="G4" s="8">
         <v>0.32</v>
       </c>
+      <c r="H4" s="10">
+        <f>G4*SQRT(101)</f>
+        <v>3.215960198758685</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
@@ -775,6 +795,10 @@
       <c r="G5" s="8">
         <v>0.32</v>
       </c>
+      <c r="H5" s="10">
+        <f>G5*SQRT(105)</f>
+        <v>3.2790242451070712</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
@@ -804,6 +828,10 @@
       <c r="G6" s="8">
         <v>0.71</v>
       </c>
+      <c r="H6" s="10">
+        <f>G6*SQRT(29)</f>
+        <v>3.8234670130654975</v>
+      </c>
       <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
@@ -821,6 +849,10 @@
       <c r="E7" s="3">
         <v>27</v>
       </c>
+      <c r="H7" s="10">
+        <f>G7*SQRT(27)</f>
+        <v>0</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
@@ -850,6 +882,10 @@
       <c r="G8" s="8">
         <v>1.36</v>
       </c>
+      <c r="H8" s="10">
+        <f>G8*SQRT(34)</f>
+        <v>7.9300945769896094</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>9</v>
       </c>
@@ -873,6 +909,10 @@
       <c r="G9" s="8">
         <v>0.71</v>
       </c>
+      <c r="H9" s="10">
+        <f>G9*SQRT(35)</f>
+        <v>4.2004166460007273</v>
+      </c>
       <c r="J9" s="5" t="s">
         <v>10</v>
       </c>
@@ -902,6 +942,10 @@
       <c r="G10" s="8">
         <v>0.24</v>
       </c>
+      <c r="H10" s="10">
+        <f>G10*SQRT(55)</f>
+        <v>1.779887636902959</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>11</v>
       </c>
@@ -925,6 +969,10 @@
       <c r="G11" s="8">
         <v>0.2</v>
       </c>
+      <c r="H11" s="10">
+        <f>G11*SQRT(58)</f>
+        <v>1.5231546211727818</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>12</v>
       </c>
@@ -954,6 +1002,10 @@
       <c r="G12" s="8">
         <v>1.73</v>
       </c>
+      <c r="H12" s="10">
+        <f>G12*SQRT(15)</f>
+        <v>6.700261188938831</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>13</v>
       </c>
@@ -977,6 +1029,10 @@
       <c r="G13" s="8">
         <v>1.51</v>
       </c>
+      <c r="H13" s="10">
+        <f>G13*SQRT(14)</f>
+        <v>5.6499026540286517</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
@@ -1000,6 +1056,10 @@
       <c r="G14" s="8">
         <v>0.72</v>
       </c>
+      <c r="H14" s="10">
+        <f>G14*SQRT(7)</f>
+        <v>1.9049409439665053</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="C15" s="3">
@@ -1017,6 +1077,10 @@
       <c r="G15" s="8">
         <v>1.32</v>
       </c>
+      <c r="H15" s="10">
+        <f>G15*SQRT(7)</f>
+        <v>3.4923917306052599</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
@@ -1040,8 +1104,12 @@
       <c r="G16" s="8">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="10">
+        <f>G16*SQRT(46)</f>
+        <v>2.5772853935876019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="C17" s="3">
         <v>8</v>
       </c>
@@ -1057,8 +1125,12 @@
       <c r="G17" s="8">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="10">
+        <f>G17*SQRT(47)</f>
+        <v>2.6051487481523967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>2001</v>
       </c>
@@ -1080,8 +1152,12 @@
       <c r="G18" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="10">
+        <f>G18*SQRT(44)</f>
+        <v>0.46432747064975599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" s="3">
         <v>9</v>
       </c>
@@ -1097,8 +1173,12 @@
       <c r="G19" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="10">
+        <f>G19*SQRT(47)</f>
+        <v>2.0566963801203131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>2008</v>
       </c>
@@ -1120,8 +1200,12 @@
       <c r="G20" s="8">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="10">
+        <f>G20*SQRT(28)</f>
+        <v>5.9264829367846836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="C21" s="3">
         <v>10</v>
       </c>
@@ -1137,8 +1221,12 @@
       <c r="G21" s="8">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="10">
+        <f>G21*SQRT(56)</f>
+        <v>4.7893214550706453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>2008</v>
       </c>
@@ -1160,8 +1248,12 @@
       <c r="G22" s="8">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="10">
+        <f>G22*SQRT(62)</f>
+        <v>8.1889681889722841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" s="3">
         <v>11</v>
       </c>
@@ -1177,8 +1269,12 @@
       <c r="G23" s="8">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="10">
+        <f>G23*SQRT(58)</f>
+        <v>7.9965617611571043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24" s="3">
         <v>11</v>
       </c>
@@ -1194,8 +1290,12 @@
       <c r="G24" s="8">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="10">
+        <f>G24*SQRT(61)</f>
+        <v>8.8255821337745175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>2006</v>
       </c>
@@ -1217,8 +1317,12 @@
       <c r="G25" s="8">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="10">
+        <f>G25*SQRT(10)</f>
+        <v>3.3836370963801663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="C26" s="3">
         <v>12</v>
       </c>
@@ -1234,8 +1338,12 @@
       <c r="G26" s="8">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="10">
+        <f>G26*SQRT(8)</f>
+        <v>4.497199128346443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="C27" s="3">
         <v>12</v>
       </c>
@@ -1251,8 +1359,12 @@
       <c r="G27" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="10">
+        <f>G27*SQRT(8)</f>
+        <v>2.2627416997969525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>2000</v>
       </c>
@@ -1274,8 +1386,12 @@
       <c r="G28" s="8">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="10">
+        <f>G28*SQRT(59)</f>
+        <v>5.4536134809867116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -1285,8 +1401,12 @@
       <c r="E29" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="10">
+        <f>G29*SQRT(54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>2004</v>
       </c>
@@ -1308,8 +1428,12 @@
       <c r="G30" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="10">
+        <f>G30*SQRT(27)</f>
+        <v>4.156921938165306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="C31" s="3">
         <v>14</v>
       </c>
@@ -1325,8 +1449,12 @@
       <c r="G31" s="8">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="10">
+        <f>G31*SQRT(27)</f>
+        <v>3.6892682201217086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="C32" s="3">
         <v>14</v>
       </c>
@@ -1342,8 +1470,12 @@
       <c r="G32" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="10">
+        <f>G32*SQRT(29)</f>
+        <v>2.8002856997099421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" s="3">
         <v>14</v>
       </c>
@@ -1359,8 +1491,12 @@
       <c r="G33" s="8">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="10">
+        <f>G33*SQRT(21)</f>
+        <v>4.3534469102080475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>2008</v>
       </c>
@@ -1382,8 +1518,12 @@
       <c r="G34" s="8">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="10">
+        <f>G34*SQRT(20)</f>
+        <v>4.0696437190496173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="C35" s="3">
         <v>15</v>
       </c>
@@ -1399,8 +1539,12 @@
       <c r="G35" s="8">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="10">
+        <f>G35*SQRT(20)</f>
+        <v>3.2199378875996971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="C36" s="3">
         <v>15</v>
       </c>
@@ -1416,8 +1560,12 @@
       <c r="G36" s="8">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="10">
+        <f>G36*SQRT(20)</f>
+        <v>3.8013155617496426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3">
         <v>2006</v>
       </c>
@@ -1439,8 +1587,12 @@
       <c r="G37" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="10">
+        <f>G37*SQRT(30)</f>
+        <v>1.6431676725154982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="C38" s="3">
         <v>16</v>
       </c>
@@ -1456,8 +1608,12 @@
       <c r="G38" s="8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="10">
+        <f>G38*SQRT(E38)</f>
+        <v>3.2863353450309964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>2004</v>
       </c>
@@ -1479,8 +1635,12 @@
       <c r="G39" s="8">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="10">
+        <f>G39*SQRT(10)</f>
+        <v>4.3323203944306803</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="C40" s="3">
         <v>17</v>
       </c>
@@ -1496,8 +1656,12 @@
       <c r="G40" s="8">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="10">
+        <f>G40*SQRT(14)</f>
+        <v>4.0035734038481179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
         <v>2005</v>
       </c>
@@ -1519,8 +1683,12 @@
       <c r="G41" s="8">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="10">
+        <f>G41*SQRT(8)</f>
+        <v>4.7517575695735994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="C42" s="3">
         <v>18</v>
       </c>
@@ -1536,8 +1704,12 @@
       <c r="G42" s="8">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="10">
+        <f>G42*SQRT(8)</f>
+        <v>4.8931789258109095</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
         <v>2006</v>
       </c>
@@ -1559,8 +1731,12 @@
       <c r="G43" s="8">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="10">
+        <f>G43*SQRT(20)</f>
+        <v>2.5938388538997561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="C44" s="3">
         <v>19</v>
       </c>
@@ -1576,8 +1752,12 @@
       <c r="G44" s="8">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="10">
+        <f>G44*SQRT(20)</f>
+        <v>2.9516097302997228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="3">
         <v>2004</v>
       </c>
@@ -1599,8 +1779,12 @@
       <c r="G45" s="8">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="10">
+        <f>G45*SQRT(30)</f>
+        <v>2.9029295547773808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="C46" s="3">
         <v>20</v>
       </c>
@@ -1616,8 +1800,12 @@
       <c r="G46" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="10">
+        <f>G46*SQRT(27)</f>
+        <v>2.4941531628991833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
         <v>2008</v>
       </c>
@@ -1639,8 +1827,12 @@
       <c r="G47" s="8">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="10">
+        <f>G47*SQRT(10)</f>
+        <v>4.142583734820577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="C48" s="3">
         <v>21</v>
       </c>
@@ -1656,8 +1848,12 @@
       <c r="G48" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="10">
+        <f>G48*SQRT(10)</f>
+        <v>4.7434164902525691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3">
         <v>2007</v>
       </c>
@@ -1679,8 +1875,12 @@
       <c r="G49" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="10">
+        <f>G49*SQRT(84)</f>
+        <v>4.5825756949558398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="C50" s="3">
         <v>22</v>
       </c>
@@ -1696,8 +1896,12 @@
       <c r="G50" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="10">
+        <f>G50*SQRT(87)</f>
+        <v>4.6636895265444078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="3">
         <v>2004</v>
       </c>
@@ -1719,8 +1923,12 @@
       <c r="G51" s="8">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="10">
+        <f>G51*SQRT(80)</f>
+        <v>6.8870893706993526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="C52" s="3">
         <v>23</v>
       </c>
@@ -1736,8 +1944,12 @@
       <c r="G52" s="8">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="10">
+        <f>G52*SQRT(93)</f>
+        <v>5.3040079185461257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="3">
         <v>2006</v>
       </c>
@@ -1759,8 +1971,12 @@
       <c r="G53" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="10">
+        <f>G53*SQRT(9)</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="C54" s="3">
         <v>24</v>
       </c>
@@ -1776,8 +1992,12 @@
       <c r="G54" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="10">
+        <f>G54*SQRT(18)</f>
+        <v>0.84852813742385702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="3">
         <v>2007</v>
       </c>
@@ -1799,8 +2019,12 @@
       <c r="G55" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="10">
+        <f>G55*SQRT(23)</f>
+        <v>4.3162483709814472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="C56" s="3">
         <v>25</v>
       </c>
@@ -1816,8 +2040,12 @@
       <c r="G56" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="10">
+        <f>G56*SQRT(25)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="3">
         <v>1999</v>
       </c>
@@ -1839,8 +2067,12 @@
       <c r="G57" s="8">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="10">
+        <f>G57*SQRT(9)</f>
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="C58" s="3">
         <v>26</v>
       </c>
@@ -1856,8 +2088,12 @@
       <c r="G58" s="8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="10">
+        <f>G58*SQRT(10)</f>
+        <v>3.7947331922020551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="3">
         <v>2005</v>
       </c>
@@ -1879,8 +2115,12 @@
       <c r="G59" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="10">
+        <f>G59*SQRT(30)</f>
+        <v>1.6431676725154982</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="C60" s="3">
         <v>27</v>
       </c>
@@ -1896,8 +2136,12 @@
       <c r="G60" s="8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="10">
+        <f>G60*SQRT(30)</f>
+        <v>3.2863353450309964</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="3">
         <v>2006</v>
       </c>
@@ -1919,8 +2163,12 @@
       <c r="G61" s="8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="10">
+        <f>G61*SQRT(49)</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="C62" s="3">
         <v>28</v>
       </c>
@@ -1935,6 +2183,10 @@
       </c>
       <c r="G62" s="8">
         <v>0.3</v>
+      </c>
+      <c r="H62" s="10">
+        <f>G62*SQRT(144)</f>
+        <v>3.5999999999999996</v>
       </c>
     </row>
   </sheetData>
